--- a/TestData/Audit_manager.xlsx
+++ b/TestData/Audit_manager.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AssetRequest" sheetId="1" r:id="rId1"/>
+    <sheet name="ComplianceRequest" sheetId="2" r:id="rId2"/>
+    <sheet name="Audit_AM_Assetmaster" sheetId="3" r:id="rId3"/>
+    <sheet name="Audit_AM_Assetdisposal" sheetId="4" r:id="rId4"/>
+    <sheet name="AssetPolicy" sheetId="5" r:id="rId5"/>
+    <sheet name="CompliancePolicy" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +31,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+  <si>
+    <t>SelectAuditRequest</t>
+  </si>
+  <si>
+    <t>Taskname</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Compliance Audit</t>
+  </si>
+  <si>
+    <t>New Asset Policy -28</t>
+  </si>
+  <si>
+    <t>Compliance...</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Assetname</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>AssetName</t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Consumption Policy - 02</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
@@ -34,9 +89,17 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -507,139 +570,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1174,14 +1252,244 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="16.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="10.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:3">
+      <c r="A2" s="4">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:3">
+      <c r="A2" s="4">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="20.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/TestData/Audit_manager.xlsx
+++ b/TestData/Audit_manager.xlsx
@@ -700,11 +700,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -714,9 +711,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1266,13 +1260,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1310,13 +1304,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1351,25 +1345,25 @@
     <col min="2" max="2" width="10.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="2" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:3">
-      <c r="A2" s="4">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1393,25 +1387,25 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="2" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:3">
-      <c r="A2" s="4">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3">
         <v>41</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1437,10 +1431,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1464,7 +1458,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1474,10 +1468,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
